--- a/data/trans_dic/P44A$endoscopia-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P44A$endoscopia-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -685,47 +686,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>45,6; 75,65</t>
+          <t>46,35; 76,37</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>45,21; 70,3</t>
+          <t>44,93; 71,19</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>36,23; 50,98</t>
+          <t>36,68; 50,14</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>54,75; 78,76</t>
+          <t>54,51; 78,56</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>42,95; 69,47</t>
+          <t>42,14; 69,0</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>36,42; 47,16</t>
+          <t>36,11; 47,21</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>54,59; 74,25</t>
+          <t>55,3; 74,17</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>47,74; 66,79</t>
+          <t>47,35; 66,85</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>38,74; 46,83</t>
+          <t>38,23; 46,49</t>
         </is>
       </c>
     </row>
@@ -795,47 +796,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>44,37; 73,71</t>
+          <t>43,83; 73,73</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>39,74; 62,32</t>
+          <t>40,51; 63,33</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>37,08; 89,31</t>
+          <t>37,29; 90,71</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>30,78; 71,89</t>
+          <t>34,75; 72,26</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>38,12; 70,87</t>
+          <t>35,89; 73,02</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>29,53; 39,0</t>
+          <t>29,6; 38,97</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>45,2; 68,5</t>
+          <t>44,7; 68,14</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>42,7; 62,24</t>
+          <t>43,13; 62,27</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>35,13; 82,21</t>
+          <t>35,15; 82,4</t>
         </is>
       </c>
     </row>
@@ -905,47 +906,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>36,35; 87,02</t>
+          <t>31,58; 87,28</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>24,87; 62,18</t>
+          <t>23,13; 61,24</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>40,62; 57,0</t>
+          <t>41,41; 57,11</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>22,55; 79,72</t>
+          <t>22,92; 80,62</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>26,39; 81,24</t>
+          <t>25,53; 80,46</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>25,54; 39,87</t>
+          <t>25,87; 39,72</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>35,01; 77,15</t>
+          <t>37,42; 77,78</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>31,41; 62,89</t>
+          <t>31,44; 63,75</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>37,15; 47,89</t>
+          <t>36,58; 48,33</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1016,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>50,73; 71,59</t>
+          <t>51,6; 71,36</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>44,45; 59,64</t>
+          <t>43,54; 59,81</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>41,17; 83,83</t>
+          <t>41,48; 83,12</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>50,69; 70,95</t>
+          <t>51,84; 72,26</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>45,31; 64,63</t>
+          <t>45,52; 65,45</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>33,43; 39,8</t>
+          <t>33,06; 39,47</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>53,47; 67,48</t>
+          <t>54,13; 68,78</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>46,84; 59,58</t>
+          <t>47,41; 59,61</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>38,74; 72,65</t>
+          <t>38,73; 73,03</t>
         </is>
       </c>
     </row>
@@ -1079,4 +1080,799 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población al que le han realizado al menor una endoscopia para detectar cáncer de colon</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Primarios</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>140</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>233</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>28113</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>30336</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>61706</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>42197</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>34559</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>70681</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>70309</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>64895</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>132387</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>20884; 34410</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>23236; 36818</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>51522; 70427</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>34295; 49422</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>26177; 42861</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>61354; 80219</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>59711; 80076</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>53899; 76094</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>118644; 144300</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundarios</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>137</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>143</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>280</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>29592</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>40335</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>346926</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>16528</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>20145</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>76003</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>46120</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>60479</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>422928</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>21803; 36680</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>31632; 49445</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>190390; 463179</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>10580; 21996</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>13081; 26612</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>66011; 86904</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>35844; 54639</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>49389; 71310</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>257878; 604516</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Universitarios</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>129</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>9386</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>12033</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>60588</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>6295</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>9011</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>27620</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>15682</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>21044</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>88208</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>4599; 12711</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>6695; 17725</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>51237; 70671</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>2862; 10069</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>4122; 12988</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>22037; 33831</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>10124; 21042</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>14174; 28744</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>76420; 100977</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>81</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>310</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>332</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>117</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>642</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>67090</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>82704</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>469220</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>65020</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>63714</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>174304</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>132111</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>146418</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>643524</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>56432; 78039</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>69110; 94943</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>321402; 644058</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>54870; 76486</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>52211; 75076</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>158068; 188697</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>116498; 148014</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>129631; 162995</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>485247; 914955</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/data/trans_dic/P44A$endoscopia-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P44A$endoscopia-Estudios-trans_dic.xlsx
@@ -532,7 +532,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población al que le han realizado al menor una endoscopia para detectar cáncer de colon</t>
+          <t>Población a la que le han realizado al menos una endoscopia para detectar cáncer de colon</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -1115,7 +1115,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población al que le han realizado al menor una endoscopia para detectar cáncer de colon</t>
+          <t>Población a la que le han realizado al menos una endoscopia para detectar cáncer de colon</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
